--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801999.63204836</v>
+        <v>10801997.70220176</v>
       </c>
       <c r="C2">
-        <v>2374063.38557491</v>
+        <v>2398747.128764417</v>
       </c>
       <c r="D2">
-        <v>28061376.46598956</v>
+        <v>27947563.08115542</v>
       </c>
       <c r="E2">
-        <v>1161310.362787187</v>
+        <v>1179282.562991061</v>
       </c>
       <c r="F2">
-        <v>9411553.480477139</v>
+        <v>9614104.594186693</v>
       </c>
       <c r="G2">
-        <v>1828460.995433541</v>
+        <v>1822547.333998816</v>
       </c>
       <c r="H2">
-        <v>2134291.686983883</v>
+        <v>2208122.123670813</v>
       </c>
       <c r="I2">
-        <v>10801999.63204836</v>
+        <v>10801997.70220176</v>
       </c>
       <c r="J2">
-        <v>45513969</v>
+        <v>45553002</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>30435439.85156447</v>
+        <v>30346310.20991984</v>
       </c>
       <c r="M2">
-        <v>10572863.84326433</v>
+        <v>10793387.15717775</v>
       </c>
       <c r="N2">
-        <v>3962752.682417424</v>
+        <v>4030669.457669629</v>
       </c>
       <c r="O2">
-        <v>40403.05078343798</v>
+        <v>45702.16184636338</v>
       </c>
       <c r="P2">
-        <v>210850.4583503832</v>
+        <v>213835.2085858153</v>
       </c>
       <c r="Q2">
-        <v>251253.5091338212</v>
+        <v>259537.3704321787</v>
       </c>
       <c r="R2">
-        <v>401.1001800791555</v>
+        <v>372.3568862079573</v>
       </c>
       <c r="S2">
-        <v>113830.7639917673</v>
+        <v>110489.8498057205</v>
       </c>
       <c r="T2">
-        <v>114231.8641718464</v>
+        <v>110862.2066919285</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801997.70220176</v>
+        <v>10801999.03673311</v>
       </c>
       <c r="C2">
-        <v>2398747.128764417</v>
+        <v>2414466.439874003</v>
       </c>
       <c r="D2">
-        <v>27947563.08115542</v>
+        <v>28111992.96818429</v>
       </c>
       <c r="E2">
-        <v>1179282.562991061</v>
+        <v>1189901.79008772</v>
       </c>
       <c r="F2">
-        <v>9614104.594186693</v>
+        <v>9486554.436699318</v>
       </c>
       <c r="G2">
-        <v>1822547.333998816</v>
+        <v>1806289.812291691</v>
       </c>
       <c r="H2">
-        <v>2208122.123670813</v>
+        <v>2157083.447618817</v>
       </c>
       <c r="I2">
-        <v>10801997.70220176</v>
+        <v>10801999.03673311</v>
       </c>
       <c r="J2">
-        <v>45553002</v>
+        <v>45425814</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>30346310.20991984</v>
+        <v>30526459.40805829</v>
       </c>
       <c r="M2">
-        <v>10793387.15717775</v>
+        <v>10676456.22678704</v>
       </c>
       <c r="N2">
-        <v>4030669.457669629</v>
+        <v>3963373.259910508</v>
       </c>
       <c r="O2">
-        <v>45702.16184636338</v>
+        <v>38154.79029512414</v>
       </c>
       <c r="P2">
-        <v>213835.2085858153</v>
+        <v>198626.9279718958</v>
       </c>
       <c r="Q2">
-        <v>259537.3704321787</v>
+        <v>236781.71826702</v>
       </c>
       <c r="R2">
-        <v>372.3568862079573</v>
+        <v>361.6488484323222</v>
       </c>
       <c r="S2">
-        <v>110489.8498057205</v>
+        <v>112369.8360000918</v>
       </c>
       <c r="T2">
-        <v>110862.2066919285</v>
+        <v>112731.4848485241</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801999.03673311</v>
+        <v>10801996.87656404</v>
       </c>
       <c r="C2">
-        <v>2414466.439874003</v>
+        <v>2400383.977694701</v>
       </c>
       <c r="D2">
-        <v>28111992.96818429</v>
+        <v>28176683.9772201</v>
       </c>
       <c r="E2">
-        <v>1189901.79008772</v>
+        <v>1166584.953669309</v>
       </c>
       <c r="F2">
-        <v>9486554.436699318</v>
+        <v>9494637.221419476</v>
       </c>
       <c r="G2">
-        <v>1806289.812291691</v>
+        <v>1830955.048038461</v>
       </c>
       <c r="H2">
-        <v>2157083.447618817</v>
+        <v>2150115.498646294</v>
       </c>
       <c r="I2">
-        <v>10801999.03673311</v>
+        <v>10801996.87656404</v>
       </c>
       <c r="J2">
-        <v>45425814</v>
+        <v>45597775</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>30526459.40805829</v>
+        <v>30577067.9549148</v>
       </c>
       <c r="M2">
-        <v>10676456.22678704</v>
+        <v>10661222.17508879</v>
       </c>
       <c r="N2">
-        <v>3963373.259910508</v>
+        <v>3981070.546684756</v>
       </c>
       <c r="O2">
-        <v>38154.79029512414</v>
+        <v>42968.3894679933</v>
       </c>
       <c r="P2">
-        <v>198626.9279718958</v>
+        <v>205556.1292091309</v>
       </c>
       <c r="Q2">
-        <v>236781.71826702</v>
+        <v>248524.5186771242</v>
       </c>
       <c r="R2">
-        <v>361.6488484323222</v>
+        <v>352.8920586506481</v>
       </c>
       <c r="S2">
-        <v>112369.8360000918</v>
+        <v>111588.4448099081</v>
       </c>
       <c r="T2">
-        <v>112731.4848485241</v>
+        <v>111941.3368685587</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801996.87656404</v>
+        <v>10801997.78988717</v>
       </c>
       <c r="C2">
-        <v>2400383.977694701</v>
+        <v>2386396.060540276</v>
       </c>
       <c r="D2">
-        <v>28176683.9772201</v>
+        <v>28110321.83038301</v>
       </c>
       <c r="E2">
-        <v>1166584.953669309</v>
+        <v>1166821.75519632</v>
       </c>
       <c r="F2">
-        <v>9494637.221419476</v>
+        <v>9342384.291353669</v>
       </c>
       <c r="G2">
-        <v>1830955.048038461</v>
+        <v>1800153.273184637</v>
       </c>
       <c r="H2">
-        <v>2150115.498646294</v>
+        <v>2112518.9754442</v>
       </c>
       <c r="I2">
-        <v>10801996.87656404</v>
+        <v>10801997.78988717</v>
       </c>
       <c r="J2">
-        <v>45597775</v>
+        <v>46053836</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>30577067.9549148</v>
+        <v>30496717.89092329</v>
       </c>
       <c r="M2">
-        <v>10661222.17508879</v>
+        <v>10509206.04654999</v>
       </c>
       <c r="N2">
-        <v>3981070.546684756</v>
+        <v>3912672.248628837</v>
       </c>
       <c r="O2">
-        <v>42968.3894679933</v>
+        <v>44886.44789716412</v>
       </c>
       <c r="P2">
-        <v>205556.1292091309</v>
+        <v>215414.7406076818</v>
       </c>
       <c r="Q2">
-        <v>248524.5186771242</v>
+        <v>260301.1885048459</v>
       </c>
       <c r="R2">
-        <v>352.8920586506481</v>
+        <v>353.3500261235382</v>
       </c>
       <c r="S2">
-        <v>111588.4448099081</v>
+        <v>110284.7906843415</v>
       </c>
       <c r="T2">
-        <v>111941.3368685587</v>
+        <v>110638.140710465</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801997.78988717</v>
+        <v>10801996.78233607</v>
       </c>
       <c r="C2">
-        <v>2386396.060540276</v>
+        <v>2381337.103664116</v>
       </c>
       <c r="D2">
-        <v>28110321.83038301</v>
+        <v>28027145.98966563</v>
       </c>
       <c r="E2">
-        <v>1166821.75519632</v>
+        <v>1183178.499988239</v>
       </c>
       <c r="F2">
-        <v>9342384.291353669</v>
+        <v>9581742.01544383</v>
       </c>
       <c r="G2">
-        <v>1800153.273184637</v>
+        <v>1818707.883052529</v>
       </c>
       <c r="H2">
-        <v>2112518.9754442</v>
+        <v>2159057.090129776</v>
       </c>
       <c r="I2">
-        <v>10801997.78988717</v>
+        <v>10801996.78233607</v>
       </c>
       <c r="J2">
-        <v>46053836</v>
+        <v>45514507</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>30496717.89092329</v>
+        <v>30408483.09332974</v>
       </c>
       <c r="M2">
-        <v>10509206.04654999</v>
+        <v>10764920.51543207</v>
       </c>
       <c r="N2">
-        <v>3912672.248628837</v>
+        <v>3977764.973182305</v>
       </c>
       <c r="O2">
-        <v>44886.44789716412</v>
+        <v>39850.03345510256</v>
       </c>
       <c r="P2">
-        <v>215414.7406076818</v>
+        <v>201555.8585028712</v>
       </c>
       <c r="Q2">
-        <v>260301.1885048459</v>
+        <v>241405.8919579738</v>
       </c>
       <c r="R2">
-        <v>353.3500261235382</v>
+        <v>361.471680585005</v>
       </c>
       <c r="S2">
-        <v>110284.7906843415</v>
+        <v>111184.9808708713</v>
       </c>
       <c r="T2">
-        <v>110638.140710465</v>
+        <v>111546.4525514563</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801996.78233607</v>
+        <v>10801997.32591851</v>
       </c>
       <c r="C2">
-        <v>2381337.103664116</v>
+        <v>2389425.458454573</v>
       </c>
       <c r="D2">
-        <v>28027145.98966563</v>
+        <v>27907819.86585765</v>
       </c>
       <c r="E2">
-        <v>1183178.499988239</v>
+        <v>1167875.624767287</v>
       </c>
       <c r="F2">
-        <v>9581742.01544383</v>
+        <v>9440277.206307672</v>
       </c>
       <c r="G2">
-        <v>1818707.883052529</v>
+        <v>1818123.048518304</v>
       </c>
       <c r="H2">
-        <v>2159057.090129776</v>
+        <v>2145575.365574972</v>
       </c>
       <c r="I2">
-        <v>10801996.78233607</v>
+        <v>10801997.32591851</v>
       </c>
       <c r="J2">
-        <v>45514507</v>
+        <v>45887218</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>30408483.09332974</v>
+        <v>30297245.32431222</v>
       </c>
       <c r="M2">
-        <v>10764920.51543207</v>
+        <v>10608152.83107496</v>
       </c>
       <c r="N2">
-        <v>3977764.973182305</v>
+        <v>3963698.414093276</v>
       </c>
       <c r="O2">
-        <v>39850.03345510256</v>
+        <v>37711.41026067775</v>
       </c>
       <c r="P2">
-        <v>201555.8585028712</v>
+        <v>200077.409119081</v>
       </c>
       <c r="Q2">
-        <v>241405.8919579738</v>
+        <v>237788.8193797587</v>
       </c>
       <c r="R2">
-        <v>361.471680585005</v>
+        <v>391.3549775049857</v>
       </c>
       <c r="S2">
-        <v>111184.9808708713</v>
+        <v>112452.0922138864</v>
       </c>
       <c r="T2">
-        <v>111546.4525514563</v>
+        <v>112843.4471913914</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801997.32591851</v>
+        <v>10801998.62866781</v>
       </c>
       <c r="C2">
-        <v>2389425.458454573</v>
+        <v>2372615.740417796</v>
       </c>
       <c r="D2">
-        <v>27907819.86585765</v>
+        <v>28086114.21220786</v>
       </c>
       <c r="E2">
-        <v>1167875.624767287</v>
+        <v>1192008.627250954</v>
       </c>
       <c r="F2">
-        <v>9440277.206307672</v>
+        <v>9540630.66825347</v>
       </c>
       <c r="G2">
-        <v>1818123.048518304</v>
+        <v>1821464.456337096</v>
       </c>
       <c r="H2">
-        <v>2145575.365574972</v>
+        <v>2154315.81700209</v>
       </c>
       <c r="I2">
-        <v>10801997.32591851</v>
+        <v>10801998.62866781</v>
       </c>
       <c r="J2">
-        <v>45887218</v>
+        <v>45429399</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>30297245.32431222</v>
+        <v>30458729.95262566</v>
       </c>
       <c r="M2">
-        <v>10608152.83107496</v>
+        <v>10732639.29550442</v>
       </c>
       <c r="N2">
-        <v>3963698.414093276</v>
+        <v>3975780.273339186</v>
       </c>
       <c r="O2">
-        <v>37711.41026067775</v>
+        <v>43085.93347877897</v>
       </c>
       <c r="P2">
-        <v>200077.409119081</v>
+        <v>219182.1797984008</v>
       </c>
       <c r="Q2">
-        <v>237788.8193797587</v>
+        <v>262268.1132771798</v>
       </c>
       <c r="R2">
-        <v>391.3549775049857</v>
+        <v>376.0591932177898</v>
       </c>
       <c r="S2">
-        <v>112452.0922138864</v>
+        <v>109151.1599802607</v>
       </c>
       <c r="T2">
-        <v>112843.4471913914</v>
+        <v>109527.2191734785</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801998.62866781</v>
+        <v>10801998.12387326</v>
       </c>
       <c r="C2">
-        <v>2372615.740417796</v>
+        <v>2396797.785288844</v>
       </c>
       <c r="D2">
-        <v>28086114.21220786</v>
+        <v>27969370.53366071</v>
       </c>
       <c r="E2">
-        <v>1192008.627250954</v>
+        <v>1171420.076745874</v>
       </c>
       <c r="F2">
-        <v>9540630.66825347</v>
+        <v>9414482.828978647</v>
       </c>
       <c r="G2">
-        <v>1821464.456337096</v>
+        <v>1838446.21687746</v>
       </c>
       <c r="H2">
-        <v>2154315.81700209</v>
+        <v>2211733.144174343</v>
       </c>
       <c r="I2">
-        <v>10801998.62866781</v>
+        <v>10801998.12387326</v>
       </c>
       <c r="J2">
-        <v>45429399</v>
+        <v>45194430</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>30458729.95262566</v>
+        <v>30366168.31894955</v>
       </c>
       <c r="M2">
-        <v>10732639.29550442</v>
+        <v>10585902.90572452</v>
       </c>
       <c r="N2">
-        <v>3975780.273339186</v>
+        <v>4050179.361051804</v>
       </c>
       <c r="O2">
-        <v>43085.93347877897</v>
+        <v>45067.52697071903</v>
       </c>
       <c r="P2">
-        <v>219182.1797984008</v>
+        <v>200361.0291313946</v>
       </c>
       <c r="Q2">
-        <v>262268.1132771798</v>
+        <v>245428.5561021136</v>
       </c>
       <c r="R2">
-        <v>376.0591932177898</v>
+        <v>386.5022353177693</v>
       </c>
       <c r="S2">
-        <v>109151.1599802607</v>
+        <v>114156.3088668484</v>
       </c>
       <c r="T2">
-        <v>109527.2191734785</v>
+        <v>114542.8111021662</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801998.12387326</v>
+        <v>10801997.16629423</v>
       </c>
       <c r="C2">
-        <v>2396797.785288844</v>
+        <v>2390776.998132432</v>
       </c>
       <c r="D2">
-        <v>27969370.53366071</v>
+        <v>27877165.35240201</v>
       </c>
       <c r="E2">
-        <v>1171420.076745874</v>
+        <v>1156766.700284801</v>
       </c>
       <c r="F2">
-        <v>9414482.828978647</v>
+        <v>9423542.157534683</v>
       </c>
       <c r="G2">
-        <v>1838446.21687746</v>
+        <v>1844372.631350089</v>
       </c>
       <c r="H2">
-        <v>2211733.144174343</v>
+        <v>2190022.0637029</v>
       </c>
       <c r="I2">
-        <v>10801998.12387326</v>
+        <v>10801997.16629423</v>
       </c>
       <c r="J2">
-        <v>45194430</v>
+        <v>44939105</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>30366168.31894955</v>
+        <v>30267942.35053444</v>
       </c>
       <c r="M2">
-        <v>10585902.90572452</v>
+        <v>10580308.85781949</v>
       </c>
       <c r="N2">
-        <v>4050179.361051804</v>
+        <v>4034394.695052989</v>
       </c>
       <c r="O2">
-        <v>45067.52697071903</v>
+        <v>39494.24410204964</v>
       </c>
       <c r="P2">
-        <v>200361.0291313946</v>
+        <v>205722.923454306</v>
       </c>
       <c r="Q2">
-        <v>245428.5561021136</v>
+        <v>245217.1675563557</v>
       </c>
       <c r="R2">
-        <v>386.5022353177693</v>
+        <v>363.3855534273681</v>
       </c>
       <c r="S2">
-        <v>114156.3088668484</v>
+        <v>111510.0611290252</v>
       </c>
       <c r="T2">
-        <v>114542.8111021662</v>
+        <v>111873.4466824526</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801997.16629423</v>
+        <v>10775351.92785637</v>
       </c>
       <c r="C2">
-        <v>2390776.998132432</v>
+        <v>2429237.833225261</v>
       </c>
       <c r="D2">
-        <v>27877165.35240201</v>
+        <v>28250397.67641928</v>
       </c>
       <c r="E2">
-        <v>1156766.700284801</v>
+        <v>1176877.84930499</v>
       </c>
       <c r="F2">
-        <v>9423542.157534683</v>
+        <v>9397656.956019122</v>
       </c>
       <c r="G2">
-        <v>1844372.631350089</v>
+        <v>1848931.834534268</v>
       </c>
       <c r="H2">
-        <v>2190022.0637029</v>
+        <v>2100844.41724581</v>
       </c>
       <c r="I2">
-        <v>10801997.16629423</v>
+        <v>10775351.92785637</v>
       </c>
       <c r="J2">
-        <v>44939105</v>
+        <v>44940247</v>
       </c>
       <c r="K2">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L2">
-        <v>30267942.35053444</v>
+        <v>30679635.50964454</v>
       </c>
       <c r="M2">
-        <v>10580308.85781949</v>
+        <v>10574534.80532411</v>
       </c>
       <c r="N2">
-        <v>4034394.695052989</v>
+        <v>3949776.251780078</v>
       </c>
       <c r="O2">
-        <v>39494.24410204964</v>
+        <v>41293.57878157049</v>
       </c>
       <c r="P2">
-        <v>205722.923454306</v>
+        <v>206574.1005918898</v>
       </c>
       <c r="Q2">
-        <v>245217.1675563557</v>
+        <v>247867.6793734603</v>
       </c>
       <c r="R2">
-        <v>363.3855534273681</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>111510.0611290252</v>
+        <v>109448.5612180983</v>
       </c>
       <c r="T2">
-        <v>111873.4466824526</v>
+        <v>109448.5612180983</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10775351.92785637</v>
+        <v>10775351.80365941</v>
       </c>
       <c r="C2">
-        <v>2429237.833225261</v>
+        <v>2329048.259037</v>
       </c>
       <c r="D2">
-        <v>28250397.67641928</v>
+        <v>26420107.91038148</v>
       </c>
       <c r="E2">
-        <v>1176877.84930499</v>
+        <v>1125791.460891889</v>
       </c>
       <c r="F2">
-        <v>9397656.956019122</v>
+        <v>7982797.567750543</v>
       </c>
       <c r="G2">
-        <v>1848931.834534268</v>
+        <v>1832377.270253981</v>
       </c>
       <c r="H2">
-        <v>2100844.41724581</v>
+        <v>2155611.783327678</v>
       </c>
       <c r="I2">
-        <v>10775351.92785637</v>
+        <v>10775351.80365941</v>
       </c>
       <c r="J2">
-        <v>44940247</v>
+        <v>45433178</v>
       </c>
       <c r="K2">
         <v>112</v>
       </c>
       <c r="L2">
-        <v>30679635.50964454</v>
+        <v>28749156.16941848</v>
       </c>
       <c r="M2">
-        <v>10574534.80532411</v>
+        <v>9108589.028642433</v>
       </c>
       <c r="N2">
-        <v>3949776.251780078</v>
+        <v>3987989.05358166</v>
       </c>
       <c r="O2">
-        <v>41293.57878157049</v>
+        <v>41848.08146967313</v>
       </c>
       <c r="P2">
-        <v>206574.1005918898</v>
+        <v>205518.4761020395</v>
       </c>
       <c r="Q2">
-        <v>247867.6793734603</v>
+        <v>247366.5575717126</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>109448.5612180983</v>
+        <v>107759.2930388506</v>
       </c>
       <c r="T2">
-        <v>109448.5612180983</v>
+        <v>107759.2930388506</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10775351.80365941</v>
+        <v>10775354.27120115</v>
       </c>
       <c r="C2">
-        <v>2329048.259037</v>
+        <v>2323361.208729651</v>
       </c>
       <c r="D2">
-        <v>26420107.91038148</v>
+        <v>26549386.03670674</v>
       </c>
       <c r="E2">
-        <v>1125791.460891889</v>
+        <v>1162925.90346796</v>
       </c>
       <c r="F2">
-        <v>7982797.567750543</v>
+        <v>8133883.94206829</v>
       </c>
       <c r="G2">
-        <v>1832377.270253981</v>
+        <v>1840158.847538969</v>
       </c>
       <c r="H2">
-        <v>2155611.783327678</v>
+        <v>2147606.714985966</v>
       </c>
       <c r="I2">
-        <v>10775351.80365941</v>
+        <v>10775354.27120115</v>
       </c>
       <c r="J2">
-        <v>45433178</v>
+        <v>45686712</v>
       </c>
       <c r="K2">
         <v>112</v>
       </c>
       <c r="L2">
-        <v>28749156.16941848</v>
+        <v>28872747.24543639</v>
       </c>
       <c r="M2">
-        <v>9108589.028642433</v>
+        <v>9296809.845536251</v>
       </c>
       <c r="N2">
-        <v>3987989.05358166</v>
+        <v>3987765.562524935</v>
       </c>
       <c r="O2">
-        <v>41848.08146967313</v>
+        <v>42003.69909165125</v>
       </c>
       <c r="P2">
-        <v>205518.4761020395</v>
+        <v>193223.4542440221</v>
       </c>
       <c r="Q2">
-        <v>247366.5575717126</v>
+        <v>235227.1533356734</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>107759.2930388506</v>
+        <v>110512.2729345839</v>
       </c>
       <c r="T2">
-        <v>107759.2930388506</v>
+        <v>110512.2729345839</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10775354.27120115</v>
+        <v>10775354.73282147</v>
       </c>
       <c r="C2">
-        <v>2323361.208729651</v>
+        <v>2355658.058386934</v>
       </c>
       <c r="D2">
-        <v>26549386.03670674</v>
+        <v>26719498.71858908</v>
       </c>
       <c r="E2">
-        <v>1162925.90346796</v>
+        <v>1160060.286615036</v>
       </c>
       <c r="F2">
-        <v>8133883.94206829</v>
+        <v>8089757.170563366</v>
       </c>
       <c r="G2">
-        <v>1840158.847538969</v>
+        <v>1853669.720710634</v>
       </c>
       <c r="H2">
-        <v>2147606.714985966</v>
+        <v>2141944.933309767</v>
       </c>
       <c r="I2">
-        <v>10775354.27120115</v>
+        <v>10775354.73282147</v>
       </c>
       <c r="J2">
-        <v>45686712</v>
+        <v>45316349</v>
       </c>
       <c r="K2">
         <v>112</v>
       </c>
       <c r="L2">
-        <v>28872747.24543639</v>
+        <v>29075156.77697601</v>
       </c>
       <c r="M2">
-        <v>9296809.845536251</v>
+        <v>9249817.457178403</v>
       </c>
       <c r="N2">
-        <v>3987765.562524935</v>
+        <v>3995614.654020401</v>
       </c>
       <c r="O2">
-        <v>42003.69909165125</v>
+        <v>43009.07809124866</v>
       </c>
       <c r="P2">
-        <v>193223.4542440221</v>
+        <v>202817.3567267472</v>
       </c>
       <c r="Q2">
-        <v>235227.1533356734</v>
+        <v>245826.4348179959</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>110512.2729345839</v>
+        <v>105370.6424610647</v>
       </c>
       <c r="T2">
-        <v>110512.2729345839</v>
+        <v>105370.6424610647</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10775354.73282147</v>
+        <v>10775351.19246996</v>
       </c>
       <c r="C2">
-        <v>2355658.058386934</v>
+        <v>2333037.159199236</v>
       </c>
       <c r="D2">
-        <v>26719498.71858908</v>
+        <v>26681052.94840628</v>
       </c>
       <c r="E2">
-        <v>1160060.286615036</v>
+        <v>1138278.49584407</v>
       </c>
       <c r="F2">
-        <v>8089757.170563366</v>
+        <v>7896047.847144105</v>
       </c>
       <c r="G2">
-        <v>1853669.720710634</v>
+        <v>1842394.1173711</v>
       </c>
       <c r="H2">
-        <v>2141944.933309767</v>
+        <v>2144817.388797354</v>
       </c>
       <c r="I2">
-        <v>10775354.73282147</v>
+        <v>10775351.19246996</v>
       </c>
       <c r="J2">
-        <v>45316349</v>
+        <v>45373051</v>
       </c>
       <c r="K2">
         <v>112</v>
       </c>
       <c r="L2">
-        <v>29075156.77697601</v>
+        <v>29014090.10760552</v>
       </c>
       <c r="M2">
-        <v>9249817.457178403</v>
+        <v>9034326.342988174</v>
       </c>
       <c r="N2">
-        <v>3995614.654020401</v>
+        <v>3987211.506168454</v>
       </c>
       <c r="O2">
-        <v>43009.07809124866</v>
+        <v>42661.91286283184</v>
       </c>
       <c r="P2">
-        <v>202817.3567267472</v>
+        <v>203894.3726773379</v>
       </c>
       <c r="Q2">
-        <v>245826.4348179959</v>
+        <v>246556.2855401697</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>105370.6424610647</v>
+        <v>104322.4875383274</v>
       </c>
       <c r="T2">
-        <v>105370.6424610647</v>
+        <v>104322.4875383274</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10775351.19246996</v>
+        <v>10775352.48302896</v>
       </c>
       <c r="C2">
-        <v>2333037.159199236</v>
+        <v>2289556.437115771</v>
       </c>
       <c r="D2">
-        <v>26681052.94840628</v>
+        <v>26279788.22498587</v>
       </c>
       <c r="E2">
-        <v>1138278.49584407</v>
+        <v>1150201.3227213</v>
       </c>
       <c r="F2">
-        <v>7896047.847144105</v>
+        <v>8032181.386345306</v>
       </c>
       <c r="G2">
-        <v>1842394.1173711</v>
+        <v>1816149.215018432</v>
       </c>
       <c r="H2">
-        <v>2144817.388797354</v>
+        <v>2130882.129705818</v>
       </c>
       <c r="I2">
-        <v>10775351.19246996</v>
+        <v>10775352.48302896</v>
       </c>
       <c r="J2">
-        <v>45373051</v>
+        <v>45022312</v>
       </c>
       <c r="K2">
         <v>112</v>
       </c>
       <c r="L2">
-        <v>29014090.10760552</v>
+        <v>28569344.66210164</v>
       </c>
       <c r="M2">
-        <v>9034326.342988174</v>
+        <v>9182382.709066605</v>
       </c>
       <c r="N2">
-        <v>3987211.506168454</v>
+        <v>3947031.34472425</v>
       </c>
       <c r="O2">
-        <v>42661.91286283184</v>
+        <v>41112.88088893654</v>
       </c>
       <c r="P2">
-        <v>203894.3726773379</v>
+        <v>204534.0403525203</v>
       </c>
       <c r="Q2">
-        <v>246556.2855401697</v>
+        <v>245646.9212414569</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>104322.4875383274</v>
+        <v>111189.9889842188</v>
       </c>
       <c r="T2">
-        <v>104322.4875383274</v>
+        <v>111189.9889842188</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10775352.48302896</v>
+        <v>10801998.17142839</v>
       </c>
       <c r="C2">
-        <v>2289556.437115771</v>
+        <v>2379977.196470376</v>
       </c>
       <c r="D2">
-        <v>26279788.22498587</v>
+        <v>26669309.15483012</v>
       </c>
       <c r="E2">
-        <v>1150201.3227213</v>
+        <v>1184224.971145396</v>
       </c>
       <c r="F2">
-        <v>8032181.386345306</v>
+        <v>8309780.944257278</v>
       </c>
       <c r="G2">
-        <v>1816149.215018432</v>
+        <v>1790197.401854254</v>
       </c>
       <c r="H2">
-        <v>2130882.129705818</v>
+        <v>2095196.072082837</v>
       </c>
       <c r="I2">
-        <v>10775352.48302896</v>
+        <v>10801998.17142839</v>
       </c>
       <c r="J2">
-        <v>45022312</v>
+        <v>45450913</v>
       </c>
       <c r="K2">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L2">
-        <v>28569344.66210164</v>
+        <v>29049286.3513005</v>
       </c>
       <c r="M2">
-        <v>9182382.709066605</v>
+        <v>9494005.915402673</v>
       </c>
       <c r="N2">
-        <v>3947031.34472425</v>
+        <v>3885393.473937091</v>
       </c>
       <c r="O2">
-        <v>41112.88088893654</v>
+        <v>46549.68863766413</v>
       </c>
       <c r="P2">
-        <v>204534.0403525203</v>
+        <v>219942.2418551578</v>
       </c>
       <c r="Q2">
-        <v>245646.9212414569</v>
+        <v>266491.9304928219</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>111189.9889842188</v>
+        <v>108643.6793407113</v>
       </c>
       <c r="T2">
-        <v>111189.9889842188</v>
+        <v>108643.6793407113</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801998.17142839</v>
+        <v>10801998.69931963</v>
       </c>
       <c r="C2">
-        <v>2379977.196470376</v>
+        <v>2387512.23532753</v>
       </c>
       <c r="D2">
-        <v>26669309.15483012</v>
+        <v>26497482.17731226</v>
       </c>
       <c r="E2">
-        <v>1184224.971145396</v>
+        <v>1182304.042637813</v>
       </c>
       <c r="F2">
-        <v>8309780.944257278</v>
+        <v>8399282.693381107</v>
       </c>
       <c r="G2">
-        <v>1790197.401854254</v>
+        <v>1841605.207676718</v>
       </c>
       <c r="H2">
-        <v>2095196.072082837</v>
+        <v>2165415.636561316</v>
       </c>
       <c r="I2">
-        <v>10801998.17142839</v>
+        <v>10801998.69931963</v>
       </c>
       <c r="J2">
-        <v>45450913</v>
+        <v>45546126</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>29049286.3513005</v>
+        <v>28884994.41263979</v>
       </c>
       <c r="M2">
-        <v>9494005.915402673</v>
+        <v>9581586.736018919</v>
       </c>
       <c r="N2">
-        <v>3885393.473937091</v>
+        <v>4007020.844238034</v>
       </c>
       <c r="O2">
-        <v>46549.68863766413</v>
+        <v>42885.53887248045</v>
       </c>
       <c r="P2">
-        <v>219942.2418551578</v>
+        <v>202262.9668764474</v>
       </c>
       <c r="Q2">
-        <v>266491.9304928219</v>
+        <v>245148.5057489279</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>108643.6793407113</v>
+        <v>111273.8858591088</v>
       </c>
       <c r="T2">
-        <v>108643.6793407113</v>
+        <v>111273.8858591088</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801998.69931963</v>
+        <v>10801998.67284607</v>
       </c>
       <c r="C2">
-        <v>2387512.23532753</v>
+        <v>2390706.027224486</v>
       </c>
       <c r="D2">
-        <v>26497482.17731226</v>
+        <v>26646187.82939581</v>
       </c>
       <c r="E2">
-        <v>1182304.042637813</v>
+        <v>1176717.865767175</v>
       </c>
       <c r="F2">
-        <v>8399282.693381107</v>
+        <v>8317910.046689478</v>
       </c>
       <c r="G2">
-        <v>1841605.207676718</v>
+        <v>1833488.527353045</v>
       </c>
       <c r="H2">
-        <v>2165415.636561316</v>
+        <v>2135770.015141096</v>
       </c>
       <c r="I2">
-        <v>10801998.69931963</v>
+        <v>10801998.67284607</v>
       </c>
       <c r="J2">
-        <v>45546126</v>
+        <v>45486215</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>28884994.41263979</v>
+        <v>29036893.8566203</v>
       </c>
       <c r="M2">
-        <v>9581586.736018919</v>
+        <v>9494627.912456652</v>
       </c>
       <c r="N2">
-        <v>4007020.844238034</v>
+        <v>3969258.542494141</v>
       </c>
       <c r="O2">
-        <v>42885.53887248045</v>
+        <v>42058.40563440622</v>
       </c>
       <c r="P2">
-        <v>202262.9668764474</v>
+        <v>207175.8522433573</v>
       </c>
       <c r="Q2">
-        <v>245148.5057489279</v>
+        <v>249234.2578777635</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>111273.8858591088</v>
+        <v>111171.2040422165</v>
       </c>
       <c r="T2">
-        <v>111273.8858591088</v>
+        <v>111171.2040422165</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801998.67284607</v>
+        <v>10801997.17295967</v>
       </c>
       <c r="C2">
-        <v>2390706.027224486</v>
+        <v>2374074.297282989</v>
       </c>
       <c r="D2">
-        <v>26646187.82939581</v>
+        <v>26378827.89743374</v>
       </c>
       <c r="E2">
-        <v>1176717.865767175</v>
+        <v>1185682.38352715</v>
       </c>
       <c r="F2">
-        <v>8317910.046689478</v>
+        <v>8439986.56294816</v>
       </c>
       <c r="G2">
-        <v>1833488.527353045</v>
+        <v>1828197.521994759</v>
       </c>
       <c r="H2">
-        <v>2135770.015141096</v>
+        <v>2104549.666711418</v>
       </c>
       <c r="I2">
-        <v>10801998.67284607</v>
+        <v>10801997.17295967</v>
       </c>
       <c r="J2">
-        <v>45486215</v>
+        <v>45512584</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>29036893.8566203</v>
+        <v>28752902.19471672</v>
       </c>
       <c r="M2">
-        <v>9494627.912456652</v>
+        <v>9625668.94647531</v>
       </c>
       <c r="N2">
-        <v>3969258.542494141</v>
+        <v>3932747.188706177</v>
       </c>
       <c r="O2">
-        <v>42058.40563440622</v>
+        <v>45117.65828076528</v>
       </c>
       <c r="P2">
-        <v>207175.8522433573</v>
+        <v>206824.7031532861</v>
       </c>
       <c r="Q2">
-        <v>249234.2578777635</v>
+        <v>251942.3614340514</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>111171.2040422165</v>
+        <v>116051.4494870003</v>
       </c>
       <c r="T2">
-        <v>111171.2040422165</v>
+        <v>116051.4494870003</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -464,61 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801997.17295967</v>
+        <v>10801998.75377954</v>
       </c>
       <c r="C2">
-        <v>2374074.297282989</v>
+        <v>2355449.873675503</v>
       </c>
       <c r="D2">
-        <v>26378827.89743374</v>
+        <v>26420149.15756752</v>
       </c>
       <c r="E2">
-        <v>1185682.38352715</v>
+        <v>1170335.67459554</v>
       </c>
       <c r="F2">
-        <v>8439986.56294816</v>
+        <v>8304634.029621447</v>
       </c>
       <c r="G2">
-        <v>1828197.521994759</v>
+        <v>1803776.560677967</v>
       </c>
       <c r="H2">
-        <v>2104549.666711418</v>
+        <v>2142420.406991235</v>
       </c>
       <c r="I2">
-        <v>10801997.17295967</v>
+        <v>10801998.75377954</v>
       </c>
       <c r="J2">
-        <v>45512584</v>
+        <v>45566403</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>28752902.19471672</v>
+        <v>28775599.03124302</v>
       </c>
       <c r="M2">
-        <v>9625668.94647531</v>
+        <v>9474969.704216985</v>
       </c>
       <c r="N2">
-        <v>3932747.188706177</v>
+        <v>3946196.967669202</v>
       </c>
       <c r="O2">
-        <v>45117.65828076528</v>
+        <v>47460.68873488131</v>
       </c>
       <c r="P2">
-        <v>206824.7031532861</v>
+        <v>201529.7336367138</v>
       </c>
       <c r="Q2">
-        <v>251942.3614340514</v>
+        <v>248990.4223715951</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>116051.4494870003</v>
+        <v>112434.7499023176</v>
       </c>
       <c r="T2">
-        <v>116051.4494870003</v>
+        <v>112434.7499023176</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,30 +430,35 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Group.1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>tot_keep_wf</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>tot_rel_wf</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>tot_wf_cat</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>tot_keep_rd</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>tot_rel_rd</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>tot_rd_cat</t>
         </is>
@@ -464,61 +469,64 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801998.75377954</v>
+        <v>10801998.33475939</v>
       </c>
       <c r="C2">
-        <v>2355449.873675503</v>
+        <v>2372282.164526457</v>
       </c>
       <c r="D2">
-        <v>26420149.15756752</v>
+        <v>26557345.39449133</v>
       </c>
       <c r="E2">
-        <v>1170335.67459554</v>
+        <v>1152364.165444766</v>
       </c>
       <c r="F2">
-        <v>8304634.029621447</v>
+        <v>8085423.201825836</v>
       </c>
       <c r="G2">
-        <v>1803776.560677967</v>
+        <v>1840377.530403443</v>
       </c>
       <c r="H2">
-        <v>2142420.406991235</v>
+        <v>2146872.416877256</v>
       </c>
       <c r="I2">
-        <v>10801998.75377954</v>
+        <v>10801998.33475939</v>
       </c>
       <c r="J2">
-        <v>45566403</v>
+        <v>45590812</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>28775599.03124302</v>
+        <v>28929627.55901779</v>
       </c>
       <c r="M2">
-        <v>9474969.704216985</v>
+        <v>9237787.367270602</v>
       </c>
       <c r="N2">
-        <v>3946196.967669202</v>
+        <v>3987249.947280699</v>
       </c>
       <c r="O2">
-        <v>47460.68873488131</v>
+        <v>6750225000</v>
       </c>
       <c r="P2">
-        <v>201529.7336367138</v>
+        <v>42014.73273041348</v>
       </c>
       <c r="Q2">
-        <v>248990.4223715951</v>
+        <v>205086.7601341055</v>
       </c>
       <c r="R2">
+        <v>247101.492864519</v>
+      </c>
+      <c r="S2">
         <v>0</v>
       </c>
-      <c r="S2">
-        <v>112434.7499023176</v>
-      </c>
       <c r="T2">
-        <v>112434.7499023176</v>
+        <v>109763.5155576515</v>
+      </c>
+      <c r="U2">
+        <v>109763.5155576515</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -469,64 +469,64 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801998.33475939</v>
+        <v>10801998.86030859</v>
       </c>
       <c r="C2">
-        <v>2372282.164526457</v>
+        <v>2366543.947597774</v>
       </c>
       <c r="D2">
-        <v>26557345.39449133</v>
+        <v>26512411.58681559</v>
       </c>
       <c r="E2">
-        <v>1152364.165444766</v>
+        <v>1174500.815837545</v>
       </c>
       <c r="F2">
-        <v>8085423.201825836</v>
+        <v>8113951.397317532</v>
       </c>
       <c r="G2">
-        <v>1840377.530403443</v>
+        <v>1834720.15500702</v>
       </c>
       <c r="H2">
-        <v>2146872.416877256</v>
+        <v>2106876.570023536</v>
       </c>
       <c r="I2">
-        <v>10801998.33475939</v>
+        <v>10801998.86030859</v>
       </c>
       <c r="J2">
-        <v>45590812</v>
+        <v>45027820</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>28929627.55901779</v>
+        <v>28878955.53441337</v>
       </c>
       <c r="M2">
-        <v>9237787.367270602</v>
+        <v>9288452.213155076</v>
       </c>
       <c r="N2">
-        <v>3987249.947280699</v>
+        <v>3941596.725030555</v>
       </c>
       <c r="O2">
-        <v>6750225000</v>
+        <v>7507500</v>
       </c>
       <c r="P2">
-        <v>42014.73273041348</v>
+        <v>45738.89976697706</v>
       </c>
       <c r="Q2">
-        <v>205086.7601341055</v>
+        <v>208723.5526469362</v>
       </c>
       <c r="R2">
-        <v>247101.492864519</v>
+        <v>254462.4524139133</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>109763.5155576515</v>
+        <v>107955.6959745898</v>
       </c>
       <c r="U2">
-        <v>109763.5155576515</v>
+        <v>107955.6959745898</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -469,64 +469,64 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801998.86030859</v>
+        <v>10801998.95817523</v>
       </c>
       <c r="C2">
-        <v>2366543.947597774</v>
+        <v>2378839.829423674</v>
       </c>
       <c r="D2">
-        <v>26512411.58681559</v>
+        <v>26853523.67464081</v>
       </c>
       <c r="E2">
-        <v>1174500.815837545</v>
+        <v>1177141.40607866</v>
       </c>
       <c r="F2">
-        <v>8113951.397317532</v>
+        <v>8408965.709002724</v>
       </c>
       <c r="G2">
-        <v>1834720.15500702</v>
+        <v>1820907.56798425</v>
       </c>
       <c r="H2">
-        <v>2106876.570023536</v>
+        <v>2132302.497233143</v>
       </c>
       <c r="I2">
-        <v>10801998.86030859</v>
+        <v>10801998.95817523</v>
       </c>
       <c r="J2">
-        <v>45027820</v>
+        <v>44767868</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>28878955.53441337</v>
+        <v>29232363.50406448</v>
       </c>
       <c r="M2">
-        <v>9288452.213155076</v>
+        <v>9586107.115081383</v>
       </c>
       <c r="N2">
-        <v>3941596.725030555</v>
+        <v>3953210.065217393</v>
       </c>
       <c r="O2">
         <v>7507500</v>
       </c>
       <c r="P2">
-        <v>45738.89976697706</v>
+        <v>43305.52565778625</v>
       </c>
       <c r="Q2">
-        <v>208723.5526469362</v>
+        <v>203238.0609773344</v>
       </c>
       <c r="R2">
-        <v>254462.4524139133</v>
+        <v>246543.5866351206</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>107955.6959745898</v>
+        <v>111428.6652002317</v>
       </c>
       <c r="U2">
-        <v>107955.6959745898</v>
+        <v>111428.6652002317</v>
       </c>
     </row>
   </sheetData>

--- a/aggregate_calibration_output.xlsx
+++ b/aggregate_calibration_output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,35 +430,30 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Group.1</t>
+          <t>tot_keep_wf</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>tot_keep_wf</t>
+          <t>tot_rel_wf</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>tot_rel_wf</t>
+          <t>tot_wf_cat</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>tot_wf_cat</t>
+          <t>tot_keep_rd</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>tot_keep_rd</t>
+          <t>tot_rel_rd</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>tot_rel_rd</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>tot_rd_cat</t>
         </is>
@@ -469,64 +464,61 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10801998.95817523</v>
+        <v>10801997.92877919</v>
       </c>
       <c r="C2">
-        <v>2378839.829423674</v>
+        <v>2426236.31028724</v>
       </c>
       <c r="D2">
-        <v>26853523.67464081</v>
+        <v>26931057.10171314</v>
       </c>
       <c r="E2">
-        <v>1177141.40607866</v>
+        <v>1161177.878927358</v>
       </c>
       <c r="F2">
-        <v>8408965.709002724</v>
+        <v>8216963.386908108</v>
       </c>
       <c r="G2">
-        <v>1820907.56798425</v>
+        <v>1828669.331131868</v>
       </c>
       <c r="H2">
-        <v>2132302.497233143</v>
+        <v>2223402.481121232</v>
       </c>
       <c r="I2">
-        <v>10801998.95817523</v>
+        <v>10801997.92877919</v>
       </c>
       <c r="J2">
-        <v>44767868</v>
+        <v>43543500</v>
       </c>
       <c r="K2">
         <v>123</v>
       </c>
       <c r="L2">
-        <v>29232363.50406448</v>
+        <v>15548834.28678456</v>
       </c>
       <c r="M2">
-        <v>9586107.115081383</v>
+        <v>7254334.758447774</v>
       </c>
       <c r="N2">
-        <v>3953210.065217393</v>
+        <v>4052071.8122531</v>
       </c>
       <c r="O2">
-        <v>7507500</v>
+        <v>59235.04101616837</v>
       </c>
       <c r="P2">
-        <v>43305.52565778625</v>
+        <v>280968.5662694842</v>
       </c>
       <c r="Q2">
-        <v>203238.0609773344</v>
+        <v>340203.6072856526</v>
       </c>
       <c r="R2">
-        <v>246543.5866351206</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>136123.6367394048</v>
       </c>
       <c r="T2">
-        <v>111428.6652002317</v>
-      </c>
-      <c r="U2">
-        <v>111428.6652002317</v>
+        <v>136123.6367394048</v>
       </c>
     </row>
   </sheetData>
